--- a/data/inputs/data_inputs.xlsx
+++ b/data/inputs/data_inputs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="distancias" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
   <si>
     <t xml:space="preserve">Cliente</t>
   </si>
@@ -73,31 +73,31 @@
     <t xml:space="preserve">O</t>
   </si>
   <si>
-    <t xml:space="preserve">Coord x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coord y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedidos #1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedidos #2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedidos #3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedidos #4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedidos #5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedidos #6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
+    <t xml:space="preserve">cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coord_x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coord_y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedidos1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedidos2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedidos3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedidos4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedidos5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedidos6</t>
   </si>
   <si>
     <t xml:space="preserve">camion</t>
@@ -128,6 +128,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -323,7 +324,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
@@ -492,7 +495,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1318,20 +1321,20 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1502,7 +1505,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1517,33 +1520,33 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1892,38 +1895,18 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="16" t="n">
-        <f aca="false">SUM(B2:B16)</f>
-        <v>47</v>
-      </c>
-      <c r="C17" s="16" t="n">
-        <f aca="false">SUM(C2:C16)</f>
-        <v>54</v>
-      </c>
-      <c r="D17" s="16" t="n">
-        <f aca="false">SUM(D2:D16)</f>
-        <v>55</v>
-      </c>
-      <c r="E17" s="16" t="n">
-        <f aca="false">SUM(E2:E16)</f>
-        <v>56</v>
-      </c>
-      <c r="F17" s="16" t="n">
-        <f aca="false">SUM(F2:F16)</f>
-        <v>66</v>
-      </c>
-      <c r="G17" s="16" t="n">
-        <f aca="false">SUM(G2:G16)</f>
-        <v>61</v>
-      </c>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1938,11 +1921,11 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -2045,7 +2028,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/data/inputs/data_inputs.xlsx
+++ b/data/inputs/data_inputs.xlsx
@@ -492,7 +492,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1521,7 +1521,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/inputs/data_inputs.xlsx
+++ b/data/inputs/data_inputs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="distancias" sheetId="1" state="visible" r:id="rId2"/>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">carga_max</t>
   </si>
   <si>
-    <t xml:space="preserve">clientes_max</t>
+    <t xml:space="preserve">pedidos_max</t>
   </si>
   <si>
     <t xml:space="preserve">dist_max</t>
@@ -495,7 +495,7 @@
       <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1324,7 +1324,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
@@ -1520,11 +1520,11 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
@@ -1921,11 +1921,11 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">

--- a/data/inputs/data_inputs.xlsx
+++ b/data/inputs/data_inputs.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pedidos" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="camiones" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="parametros" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="parametros_ruteo" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="parametros_mh" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">cliente</t>
   </si>
@@ -112,6 +113,39 @@
   </si>
   <si>
     <t xml:space="preserve">presupuesto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sol_inicial_mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sa_t_inicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sa_t_final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sa_k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sa_temp_mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sa_iters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vecinos_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random_state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non_linear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
   </si>
 </sst>
 </file>
@@ -236,7 +270,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -274,6 +308,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -296,11 +334,11 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -797,7 +835,7 @@
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.4"/>
   </cols>
@@ -918,14 +956,14 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T38" activeCellId="0" sqref="T38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -942,6 +980,85 @@
       </c>
       <c r="B2" s="9" t="n">
         <v>1220</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="18.27"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/inputs/data_inputs.xlsx
+++ b/data/inputs/data_inputs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pedidos" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t xml:space="preserve">cliente</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t xml:space="preserve">sa_iters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_time</t>
   </si>
   <si>
     <t xml:space="preserve">vecinos_p</t>
@@ -270,7 +273,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -311,8 +314,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -338,7 +345,7 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -835,7 +842,7 @@
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.4"/>
   </cols>
@@ -956,11 +963,11 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.02"/>
@@ -998,68 +1005,99 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="18.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="15.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="10" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="16.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="10" width="13.89"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="I1" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="10" t="n">
+      <c r="A2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="11" t="n">
         <v>200</v>
       </c>
-      <c r="C2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="n">
+      <c r="C2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="10" t="n">
+      <c r="E2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="G2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>40</v>
-      </c>
+      <c r="G2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
